--- a/opening/Global.xlsx
+++ b/opening/Global.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>RevisioniCompletate</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2074,17 +2074,17 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>CollabRifiutata</t>
+          <t>RevisioniNonCompletate</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneRifiutata</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
@@ -2096,12 +2096,12 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>CollabCancellata</t>
+          <t>CollabRifiutata</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCancellata</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
     </row>
@@ -2113,31 +2113,36 @@
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>CollabCompletata</t>
+          <t>CollabCancellata</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneRifiutata</t>
+          <t>CollaborazionePerizia</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>CollabCompletata</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCancellata</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2149,7 +2154,7 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -2161,17 +2166,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>RevisioneRifiutata</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
@@ -2183,31 +2183,36 @@
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>RevisionePerizia</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2219,17 +2224,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaNonApprovata</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
@@ -2241,24 +2241,24 @@
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>PeriziaApprovata</t>
+          <t>PeriziaNonApprovata</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>PeriziaApprovata</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>AccordoNonRaggiunto</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
@@ -2292,29 +2292,29 @@
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>AccordoRaggiunto-o-NonRichiesto</t>
+          <t>AccordoNonRaggiunto</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>GestioneContestazione</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>NonConfermaAccordo</t>
+          <t>AccordoRaggiunto-o-NonRichiesto</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>NonConfermaAccordo</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
@@ -2343,12 +2343,12 @@
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>ConfermaAccordo</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>GestioneContestazione</t>
         </is>
       </c>
     </row>
@@ -2360,58 +2360,58 @@
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>ContestazioneGestita</t>
+          <t>ConfermaAccordo</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>GestioneRevisione</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>GestioneContestazione</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAvviata</t>
+          <t>ContestazioneGestita</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>InvioAtto</t>
+          <t>GestioneRevisione</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>AvvioChiusura</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraAvviata</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaPostDesk</t>
+          <t>InvioAtto</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>AvviaCollaborazione</t>
+          <t>Assessment</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>AvvioPeriziaPostDesk</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneNonCompletata</t>
+          <t>AvviaCollaborazione</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>AvviaRevisione</t>
+          <t>CollaborazioneNonCompletata</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisionePostDesk</t>
+          <t>EsecuzionePeriziaPostDesk</t>
         </is>
       </c>
     </row>
@@ -2474,12 +2474,12 @@
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNecessaria</t>
+          <t>AvviaRevisione</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthorityPostDesk</t>
+          <t>PeriziaInRevisionePostDesk</t>
         </is>
       </c>
     </row>
@@ -2491,41 +2491,41 @@
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNonNecessaria</t>
+          <t>AuthorityNecessaria</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsitoPostDesk</t>
+          <t>VerificaAuthorityPostDesk</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisionePostDesk</t>
+          <t>EsecuzionePeriziaPostDesk</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>AuthorityNonNecessaria</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>ComunicazioneEsitoPostDesk</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthorityPostDesk</t>
+          <t>PeriziaInRevisionePostDesk</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>PeriziaNonApprovata</t>
+          <t>RevisioniCompletate</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -2537,80 +2537,80 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthorityPostDesk</t>
+          <t>PeriziaInRevisionePostDesk</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>PeriziaApprovata</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsitoPostDesk</t>
+          <t>EsecuzionePeriziaPostDesk</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsitoPostDesk</t>
+          <t>PeriziaInRevisionePostDesk</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>AccordoRaggiunto-o-NonRichiesto</t>
+          <t>RevisioniNonCompletate</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>PeriziaInRevisionePostDesk</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsitoPostDesk</t>
+          <t>VerificaAuthorityPostDesk</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>PeriziaNonApprovata</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsitoPostDesk</t>
+          <t>EsecuzionePeriziaPostDesk</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
+          <t>VerificaAuthorityPostDesk</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaApprovata</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
           <t>ComunicazioneEsitoPostDesk</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>AccordoNonRaggiunto</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>GestioneContestazionePostDesk</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazionePostDesk</t>
+          <t>ComunicazioneEsitoPostDesk</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>ConfermaAccordo</t>
+          <t>AccordoRaggiunto-o-NonRichiesto</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -2622,29 +2622,29 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazionePostDesk</t>
+          <t>ComunicazioneEsitoPostDesk</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>NonConfermaAccordo</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>ComunicazioneEsitoPostDesk</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazionePostDesk</t>
+          <t>ComunicazioneEsitoPostDesk</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>AccordoNonRaggiunto</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -2656,114 +2656,114 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>InvioAtto</t>
+          <t>GestioneContestazionePostDesk</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>AttoInviato</t>
+          <t>ConfermaAccordo</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
+          <t>GestioneContestazionePostDesk</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>AccordoNonRaggiunto</t>
+          <t>NonConfermaAccordo</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>EsecuzionePeriziaPostDesk</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
+          <t>GestioneContestazionePostDesk</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>AccordoRaggiunto</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>GestioneContestazionePostDesk</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>InvioAtto</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>AttoInviato</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraVerificata</t>
+          <t>AccordoNonRaggiunto</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraIncarico</t>
+          <t>GestioneContestazione</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
+          <t>AttesaRicezioneAtto</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>AccordoRaggiunto</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
           <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraIncarico</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>IncaricoChiuso</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>GestioneRevisione</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>InvioInChiusura</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -2775,15 +2775,66 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraVerificata</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraIncarico</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraIncarico</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>IncaricoChiuso</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
           <t>GestioneRevisione</t>
         </is>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>InvioInChiusura</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>GestioneRevisione</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>NuoviAccertamenti</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>SceltaServizioManuale</t>
         </is>

--- a/opening/Global.xlsx
+++ b/opening/Global.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>CreazioneAutomaticaIncarico</t>
+          <t>CreazioneManualeIncarico</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>DatiNonCompleti</t>
+          <t>Inizializzazione</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -493,2350 +493,2633 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>CreazioneAutomaticaIncarico</t>
+          <t>CreazioneManualeIncarico</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>RiaperturaManaule</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>SelezioneTipoRiapertura</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>CreazioneAutomaticaIncarico</t>
+          <t>RiaperturaAutomatica</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneNonPrevista</t>
+          <t>RiaperturaAutomatica</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>SelezioneTipoRiapertura</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>DatiNonCompleti</t>
+          <t>PeriziaAvviata</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
+          <t>AvvioPeriziaPostDesk</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>PeriziaAvviata</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
+          <t>AvvioPeriziaContestazione</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneNonPrevista</t>
+          <t>PeriziaContestazioneAvviata</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>AvvioPeriziaIncompleta</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>PeriziaIncompletaAvviata</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>AvvioPeriziaIntegrazione</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneVenduta</t>
+          <t>PeriziaIntegrazioneAvviata</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>AvvioRiparazione</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneNonVenduta</t>
+          <t>CollabAvviata</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>NessunServizio</t>
+          <t>CollaborazioneNonCompletata</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>RevisioneAvviata</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>AuthorityNonNecessaria</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>CollabAvviata</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCE</t>
+          <t>RevisioneAvviata</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Visio</t>
+          <t>AuthorityNecessaria</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>AvvioVisio</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>RevisioniCompletate</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>AvvioDesk</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Sopralluogo</t>
+          <t>RevisioniNonCompletate</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>EsitoScrittoEmail</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>InvioEmailEsito</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>EsitoScrittoAtto</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>InvioAtto</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCE</t>
+          <t>AccordoNonRaggiunto</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Sopralluogo</t>
+          <t>AccordoRaggiunto-o-NonRichiesto</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>InvioEmailEsito</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Visio</t>
+          <t>EmailEsitoInviata</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>InvioAtto</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>AttoInviato</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>InteressatoRiparazione</t>
+          <t>ConciliazioneAvviata</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>NonInteressatoRiparazione</t>
+          <t>ForzaturaChiusura</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>TimerScaduto</t>
+          <t>CollabRifiutata</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>NessunServizio</t>
+          <t>CollabCancellata</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>CollabCompletata</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>SopralluogoPCE</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Visio</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>AvvioVisio</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>Desk</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>AvvioDesk</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Sopralluogo</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SelfCare</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>AvvioAccertSelfCare</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>CreazioneManualeIncarico</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>Inizializzazione</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>SelfCareEseguito</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>AvvioPeriziaConciliazione</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SelfCareNonEseguito</t>
+          <t>PeriziaConcilazioneAvviata</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>TimerScaduto</t>
+          <t>PeriziaConcilazione</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>AvvioPeriziaConciliazione</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEAvviato</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogoPCE</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>AvvioVisio</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>VisioPianificata</t>
+          <t>ChiusuraConAccordo</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>AvvioDesk</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>DeskPianificata</t>
+          <t>PeriziaNonApprovata</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoAvviato</t>
+          <t>PeriziaApprovata</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogo</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AvvioAccertSelfCare</t>
+          <t>CreazioneAutomaticaIncarico</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>SelfCareInPerizia</t>
+          <t>DatiNonCompleti</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>CompletamentoManualeIncarico</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>AvvioAccertSelfCare</t>
+          <t>CreazioneAutomaticaIncarico</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>SelfCareInChiusura</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Chiusura</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>CreazioneAutomaticaIncarico</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>VisioPianificata</t>
+          <t>RiparazioneNonPrevista</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>CompletamentoManualeIncarico</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>DeskPianificata</t>
+          <t>DatiNonCompleti</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>CompletamentoManualeIncarico</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>CompletamentoManualeIncarico</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>VisioCompletataNuovaVisio</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>CompletamentoManualeIncarico</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoModificato</t>
+          <t>RiparazioneNonPrevista</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>RiparazioneNonVenduta</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>VisioRifiutata</t>
+          <t>RiparazioneVenduta</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>RiassegnazioneVisio</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>VisioCompletata</t>
+          <t>NessunServizio</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>RiassegnazioneVisio</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>VisioAssegnata</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>PeriziaAvviata</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>DeskCompletataNuovaDesk</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoModificato</t>
+          <t>Visio</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>AvvioVisio</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>AvvioDesk</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>Sopralluogo</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>DeskRifiutata</t>
+          <t>SopralluogoPCE</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>RiassegnazioneDesk</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>DeskCompletata</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaPostDesk</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>RiassegnazioneDesk</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>DeskAssegnata</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaPostDesk</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>PeriziaAvviata</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogo</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoAssegnato</t>
+          <t>Visio</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>AvvioManualeVisio</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPianificato</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>AvvioManualeDesk</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoRifiutato</t>
+          <t>Sopralluogo</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>VerificaSopralluogoDopoRifiuto</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>SoprallugoCompletato</t>
+          <t>SopralluogoPCE</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>InteressatoRiparazione</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAttivita</t>
+          <t>NonInteressatoRiparazione</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoModificato</t>
+          <t>TimerScaduto</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>NessunServizio</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoCompletatoNuovo</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogo</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>VerificaSopralluogoDopoRifiuto</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoAssegnato</t>
+          <t>Visio</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>AvvioVisio</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogo</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Approvato</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>AvvioDesk</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogo</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>NonApprovato</t>
+          <t>Sopralluogo</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogoPCE</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEAssegnato</t>
+          <t>SopralluogoPCE</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEPianificato</t>
+          <t>SelfCare</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>AvvioAccertSelfCare</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCERifiutato</t>
+          <t>SelfCareEseguito</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>VerificaSopralluogoPCEDopoRifiuto</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>SoprallugoCompletato</t>
+          <t>SelfCareNonEseguito</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>TimerScaduto</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>AvvioVisio</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAttivita</t>
+          <t>VisioPianificata</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>AvvioManualeVisio</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoModificato</t>
+          <t>VisioPianificata</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>VisioCompletata</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCECompletatoNuovo</t>
+          <t>VisioCompletataNuovaVisio</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogoPCE</t>
+          <t>AvvioManualeVisio</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>VerificaSopralluogoPCEDopoRifiuto</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEAssegnato</t>
+          <t>AppuntamentoModificato</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogoPCE</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>Approvato</t>
+          <t>AppuntamentoAnnullato</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogoPCE</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>NonApprovato</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>AvviaCollaborazione</t>
+          <t>VisioRifiutata</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>RiassegnazioneVisio</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>RiassegnazioneVisio</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneNonCompletata</t>
+          <t>VisioAssegnata</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>AvvioManualeVisio</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>AvvioDesk</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>AvviaRevisione</t>
+          <t>DeskPianificata</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>AvvioManualeDesk</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>AvviaCollaborazione</t>
+          <t>DeskPianificata</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>AvviaRevisione</t>
+          <t>DeskCompletata</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>AvvioPeriziaPostDesk</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNecessaria</t>
+          <t>DeskCompletataNuovaDesk</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
+          <t>AvvioManualeDesk</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNonNecessaria</t>
+          <t>AppuntamentoModificato</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>RevisioniCompletate</t>
+          <t>AppuntamentoAnnullato</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>RevisioniNonCompletate</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>CollabRifiutata</t>
+          <t>DeskRifiutata</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneRifiutata</t>
+          <t>RiassegnazioneDesk</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>RiassegnazioneDesk</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>CollabCancellata</t>
+          <t>DeskAssegnata</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCancellata</t>
+          <t>AvvioManualeDesk</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>CollabCompletata</t>
+          <t>SopralluogoAvviato</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>AssegnazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneRifiutata</t>
+          <t>AssegnazioneSopralluogo</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>SopralluogoAssegnato</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCancellata</t>
+          <t>PianificazioneSopralluogo</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>SopralluogoPianificato</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>PianificazioneSopralluogo</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>SopralluogoRifiutato</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>VerificaSopralluogoDopoRifiuto</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>SoprallugoCompletato</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>AppuntamentoAnnullato</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>EsecuzioneSopralluogo</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraAttivita</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>EsecuzioneSopralluogo</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>AppuntamentoModificato</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>PeriziaNonApprovata</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>PeriziaApprovata</t>
+          <t>SopralluogoCompletatoNuovo</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>ApprovazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>VerificaSopralluogoDopoRifiuto</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>SopralluogoAssegnato</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>ApprovazioneSopralluogo</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>AccordoNonRaggiunto</t>
+          <t>NonApprovato</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>ApprovazioneSopralluogo</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>AccordoRaggiunto-o-NonRichiesto</t>
+          <t>Approvato</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>NonConfermaAccordo</t>
+          <t>SopralluogoPCEAvviato</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>AssegnazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>AssegnazioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>SopralluogoPCEAssegnato</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>ConfermaAccordo</t>
+          <t>SopralluogoPCEPianificato</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>ContestazioneGestita</t>
+          <t>SopralluogoPCERifiutato</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>GestioneRevisione</t>
+          <t>VerificaSopralluogoPCEDopoRifiuto</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAvviata</t>
+          <t>SoprallugoCompletato</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>InvioAtto</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>EsecuzioneSopralluogoPCE</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>AppuntamentoAnnullato</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaPostDesk</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>AvviaCollaborazione</t>
+          <t>ChiusuraAttivita</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>AvviaCollaborazione</t>
+          <t>AppuntamentoModificato</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneNonCompletata</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>AvviaRevisione</t>
+          <t>SopralluogoPCECompletatoNuovo</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisionePostDesk</t>
+          <t>ApprovazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>VerificaSopralluogoPCEDopoRifiuto</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNecessaria</t>
+          <t>SopralluogoPCEAssegnato</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthorityPostDesk</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>ApprovazioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNonNecessaria</t>
+          <t>NonApprovato</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsitoPostDesk</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisionePostDesk</t>
+          <t>ApprovazioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>RevisioniCompletate</t>
+          <t>Approvato</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisionePostDesk</t>
+          <t>AvvioAccertSelfCare</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>SelfCareInPerizia</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisionePostDesk</t>
+          <t>AvvioAccertSelfCare</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>RevisioniNonCompletate</t>
+          <t>SelfCareInChiusura</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisionePostDesk</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthorityPostDesk</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>PeriziaNonApprovata</t>
+          <t>RiparazioneAvviata</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthorityPostDesk</t>
+          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>PeriziaApprovata</t>
+          <t>RiparazioneConfigurata</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsitoPostDesk</t>
+          <t>DefinizioneTimeline</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsitoPostDesk</t>
+          <t>DefinizioneTimeline</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>AccordoRaggiunto-o-NonRichiesto</t>
+          <t>TimelineDefinita</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>AssegnazioneMonitoraggio</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsitoPostDesk</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>DefinizioneTimeline</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsitoPostDesk</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsitoPostDesk</t>
+          <t>AssegnazioneMonitoraggio</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>AccordoNonRaggiunto</t>
+          <t>MonitoraggioTerminato</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazionePostDesk</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazionePostDesk</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>ConfermaAccordo</t>
+          <t>AssegnazioneMonitoraggio</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazionePostDesk</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>NonConfermaAccordo</t>
+          <t>RiparazioneNonChiusa</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePeriziaPostDesk</t>
+          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazionePostDesk</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>PeriziaPostRiparazione</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazionePostDesk</t>
+          <t>AvviaPeriziaPostRiparazione</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>InvioAtto</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>AttoInviato</t>
+          <t>ChiusuraPostRiparazione</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
+          <t>AvvioChiusuraPostRiparazione</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>AccordoNonRaggiunto</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>AccordoRaggiunto</t>
+          <t>ApprovazioneBudget</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>BudgetInApprovazione</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>ApprovazioneAttivita</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>AttivitaApprovata</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraVerificata</t>
+          <t>AppuntamentoPianificato</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraIncarico</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraIncarico</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>IncaricoChiuso</t>
+          <t>ApprovazioneBudget</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>GestioneRevisione</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>InvioInChiusura</t>
+          <t>SoprallugoCompletato</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>BudgetInApprovazione</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>GestioneRevisione</t>
+          <t>BudgetInApprovazione</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>NuoviAccertamenti</t>
+          <t>BudgetApprovato</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>SceltaServizioManuale</t>
+          <t>EsecuzioneAttivita</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzioneAttivita</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaCompletata</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaInApprovazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzioneAttivita</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaApprovata</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaInApprovazione</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaApprovata</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaApprovata</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaApprovata</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>MonitoraggioAttivita</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaApprovata</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>NuovoSopralluogo</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>PianificazioneAppuntamentoR</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>AvvioChiusura</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraAvviata</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraVerificata</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraManuale</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraVerificata</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraAutomatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaIncompleta</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>AvvioPeriziaIncompleta</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaIncompletaAvviata</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzionePerizia</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>DatiObbligatoriMancanti</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>SelezioneTipoRiapertura</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaIntegrazione</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>AvvioPeriziaIntegrazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>SelezioneTipoRiapertura</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>NonRiapertura</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>SceltaManualeServizio</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>SelezioneTipoRiapertura</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>GestioneContestazione</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>GestioneContestazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>GestioneContestazione</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaContestazione</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>AvvioPeriziaContestazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>GestioneContestazione</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>ContestazioneFinalizzata</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>FinalizzaContestazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>FinalizzaContestazione</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraAvviata</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>AvvioChiusura</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>AvviaPeriziaPostRiparazione</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaPostRiparazioneAvviata</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzionePerizia</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>AvvioChiusuraPostRiparazione</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
